--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -164,18 +164,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="\+#,##0%;\-#,##0%"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="\+#,##0%;\-#,##0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,12 +201,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -242,78 +241,81 @@
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,7 +680,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -693,122 +695,122 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>1135</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10">
-        <v>12775</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="16">
+        <v>12754</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <f>D2/B2-1</f>
-        <v>10.255506607929515</v>
+        <v>10.237004405286344</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>96</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <f>B3/B2</f>
         <v>8.4581497797356825E-2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>2842</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <f>D3/D2</f>
-        <v>0.22246575342465755</v>
-      </c>
-      <c r="F3" s="12">
+        <v>0.22283205268935236</v>
+      </c>
+      <c r="F3" s="11">
         <f>D3/B3-1</f>
         <v>28.604166666666668</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>58</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>620</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <f>B5/B2</f>
         <v>8.81057268722467E-4</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>40</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <f>D5/D2</f>
-        <v>3.1311154598825833E-3</v>
-      </c>
-      <c r="F5" s="12">
+        <v>3.1362709738121373E-3</v>
+      </c>
+      <c r="F5" s="11">
         <f>D5/B5-1</f>
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>35</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -832,7 +834,7 @@
       </c>
       <c r="D9" s="3">
         <f>D2-D3</f>
-        <v>9933</v>
+        <v>9912</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -864,13 +866,13 @@
     <row r="13" spans="1:6">
       <c r="B13" s="5">
         <f>POWER(F2+1,1/22)</f>
-        <v>1.1163215800284221</v>
+        <v>1.1162381031912056</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="5">
         <f>POWER(B13,22)-1</f>
-        <v>10.255506607929487</v>
+        <v>10.237004405286324</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -201,18 +201,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -239,8 +233,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -315,11 +343,11 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -334,6 +362,23 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -348,6 +393,23 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,7 +742,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -739,16 +801,16 @@
         <f>B3/B2</f>
         <v>8.4581497797356825E-2</v>
       </c>
-      <c r="D3" s="9">
-        <v>2842</v>
+      <c r="D3" s="16">
+        <v>2852</v>
       </c>
       <c r="E3" s="12">
         <f>D3/D2</f>
-        <v>0.22283205268935236</v>
+        <v>0.2236161204328054</v>
       </c>
       <c r="F3" s="11">
         <f>D3/B3-1</f>
-        <v>28.604166666666668</v>
+        <v>28.708333333333332</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -761,8 +823,8 @@
       <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9">
-        <v>620</v>
+      <c r="D4" s="16">
+        <v>632</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -782,16 +844,16 @@
         <f>B5/B2</f>
         <v>8.81057268722467E-4</v>
       </c>
-      <c r="D5" s="9">
-        <v>40</v>
+      <c r="D5" s="16">
+        <v>38</v>
       </c>
       <c r="E5" s="12">
         <f>D5/D2</f>
-        <v>3.1362709738121373E-3</v>
+        <v>2.9794574251215305E-3</v>
       </c>
       <c r="F5" s="11">
         <f>D5/B5-1</f>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -804,8 +866,8 @@
       <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9">
-        <v>35</v>
+      <c r="D6" s="16">
+        <v>16</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>3</v>
@@ -834,7 +896,7 @@
       </c>
       <c r="D9" s="3">
         <f>D2-D3</f>
-        <v>9912</v>
+        <v>9902</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -847,7 +909,7 @@
       </c>
       <c r="D10" s="3">
         <f>D3-D5</f>
-        <v>2802</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -860,7 +922,7 @@
       </c>
       <c r="D11" s="3">
         <f>D5</f>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="0" windowWidth="25360" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="520" yWindow="0" windowWidth="23180" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>May 2012</t>
   </si>
@@ -31,6 +31,51 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Non-data products and services</t>
+  </si>
+  <si>
+    <t>Data products and services, non open data</t>
+  </si>
+  <si>
+    <t>Open data products</t>
+  </si>
+  <si>
+    <t>Total number of products or services</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>No. of suppliers providing the above</t>
+  </si>
+  <si>
+    <r>
+      <t>No. of products or services containing the words "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" in the description and that appear to be genuine users of open data or having a proposition strongly centred around open data</t>
+    </r>
   </si>
   <si>
     <r>
@@ -53,110 +98,14 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>" in the description</t>
+      <t>" in the description (1)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">No. of products or services containing the words </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" in the description</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>No. of suppliers whose products contain the words "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>No. of suppliers whose products contain the word "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>Non-data products and services</t>
-  </si>
-  <si>
-    <t>Data products and services, non open data</t>
-  </si>
-  <si>
-    <t>Open data products</t>
-  </si>
-  <si>
-    <t>Total number of products or services</t>
+    <t>(1) We found cases in which CloudStore's full-text search did not return some of the expected results, e.g. searching for "data" did not list some of the services that refer to "open data" in their description. We used workarounds wherever possible to avoid this issue to influence the reliability of the results.</t>
   </si>
 </sst>
 </file>
@@ -168,12 +117,13 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,6 +148,12 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -233,7 +189,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -297,8 +253,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,39 +275,65 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -379,6 +365,8 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -410,6 +398,8 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -739,15 +729,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="3"/>
@@ -756,191 +746,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
-      <c r="A1" s="6"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1135</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13">
+        <v>12750</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <f>D2/B2-1</f>
+        <v>10.233480176211454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9">
-        <v>1135</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="16">
-        <v>12754</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11">
-        <f>D2/B2-1</f>
-        <v>10.237004405286344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>96</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <f>B3/B2</f>
         <v>8.4581497797356825E-2</v>
       </c>
-      <c r="D3" s="16">
-        <v>2852</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="e">
         <f>D3/D2</f>
-        <v>0.2236161204328054</v>
-      </c>
-      <c r="F3" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" s="9" t="e">
         <f>D3/B3-1</f>
-        <v>28.708333333333332</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
         <v>58</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16">
-        <v>632</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9">
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <f>B5/B2</f>
         <v>8.81057268722467E-4</v>
       </c>
-      <c r="D5" s="16">
-        <v>38</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="13">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10">
         <f>D5/D2</f>
-        <v>2.9794574251215305E-3</v>
-      </c>
-      <c r="F5" s="11">
+        <v>1.7254901960784314E-3</v>
+      </c>
+      <c r="F5" s="9">
         <f>D5/B5-1</f>
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="13">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="3" t="str">
+    <row r="7" spans="1:6" ht="6" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" s="17" customFormat="1" ht="28" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" s="17" customFormat="1" ht="28" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="3" t="str">
         <f>B1</f>
         <v>May 2012</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D10" s="3" t="str">
         <f>D1</f>
         <v>Mar 2014</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
+    <row r="11" spans="1:6">
+      <c r="A11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
         <f>B2-B3</f>
         <v>1039</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D11" s="3" t="e">
         <f>D2-D3</f>
-        <v>9902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
         <f>B3-B5</f>
         <v>95</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D12" s="3" t="e">
         <f>D3-D5</f>
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
         <f>B5</f>
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D13" s="3">
         <f>D5</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="5">
         <f>POWER(F2+1,1/22)</f>
-        <v>1.1162381031912056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="5">
-        <f>POWER(B13,22)-1</f>
-        <v>10.237004405286324</v>
+        <v>1.1162221879671452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="5">
+        <f>POWER(B15,22)-1</f>
+        <v>10.233480176211474</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="23180" windowHeight="17240" tabRatio="500"/>
+    <workbookView xWindow="5340" yWindow="0" windowWidth="23180" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>May 2012</t>
   </si>
@@ -33,6 +33,33 @@
     <t>-</t>
   </si>
   <si>
+    <r>
+      <t>No. of products or services containing the word "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" in the description</t>
+    </r>
+  </si>
+  <si>
     <t>Non-data products and services</t>
   </si>
   <si>
@@ -43,9 +70,6 @@
   </si>
   <si>
     <t>Total number of products or services</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>No. of suppliers providing the above</t>
@@ -76,36 +100,6 @@
       </rPr>
       <t>" in the description and that appear to be genuine users of open data or having a proposition strongly centred around open data</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>No. of products or services containing the word "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" in the description (1)</t>
-    </r>
-  </si>
-  <si>
-    <t>(1) We found cases in which CloudStore's full-text search did not return some of the expected results, e.g. searching for "data" did not list some of the services that refer to "open data" in their description. We used workarounds wherever possible to avoid this issue to influence the reliability of the results.</t>
   </si>
 </sst>
 </file>
@@ -258,7 +252,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,24 +304,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -729,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -761,7 +737,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7">
         <v>1135</v>
@@ -782,7 +758,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7">
         <v>96</v>
@@ -791,16 +767,16 @@
         <f>B3/B2</f>
         <v>8.4581497797356825E-2</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10" t="e">
+      <c r="D3" s="13">
+        <v>3116</v>
+      </c>
+      <c r="E3" s="10">
         <f>D3/D2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="9" t="e">
+        <v>0.2443921568627451</v>
+      </c>
+      <c r="F3" s="9">
         <f>D3/B3-1</f>
-        <v>#VALUE!</v>
+        <v>31.458333333333336</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -813,8 +789,8 @@
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>8</v>
+      <c r="D4" s="13">
+        <v>656</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>3</v>
@@ -866,98 +842,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="6" customHeight="1">
+    <row r="7" spans="1:6" s="17" customFormat="1" ht="28" customHeight="1">
       <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" s="17" customFormat="1" ht="28" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" s="17" customFormat="1" ht="28" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="3" t="str">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="3" t="str">
         <f>B1</f>
         <v>May 2012</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D8" s="3" t="str">
         <f>D1</f>
         <v>Mar 2014</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <f>B2-B3</f>
+        <v>1039</v>
+      </c>
+      <c r="D9" s="3">
+        <f>D2-D3</f>
+        <v>9634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B3-B5</f>
+        <v>95</v>
+      </c>
+      <c r="D10" s="3">
+        <f>D3-D5</f>
+        <v>3094</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
       <c r="A11" s="17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
-        <f>B2-B3</f>
-        <v>1039</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f>D2-D3</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3">
-        <f>B3-B5</f>
-        <v>95</v>
-      </c>
-      <c r="D12" s="3" t="e">
-        <f>D3-D5</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3">
         <f>B5</f>
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D11" s="3">
         <f>D5</f>
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="5">
+    <row r="13" spans="1:6">
+      <c r="B13" s="5">
         <f>POWER(F2+1,1/22)</f>
         <v>1.1162221879671452</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="5">
-        <f>POWER(B15,22)-1</f>
+    <row r="14" spans="1:6">
+      <c r="B14" s="5">
+        <f>POWER(B13,22)-1</f>
         <v>10.233480176211474</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/analysis/analysis.xlsx
+++ b/analysis/analysis.xlsx
@@ -183,8 +183,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -309,7 +323,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -343,6 +357,13 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -376,6 +397,13 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -708,7 +736,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
